--- a/e1_urls.xlsx
+++ b/e1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>x</t>
   </si>
@@ -233,6 +233,78 @@
     <t>72</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -447,6 +519,78 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/8843bf80/Preston-North-End-Blackburn-Rovers-September-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/195bc214/Plymouth-Argyle-Luton-Town-September-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0fd10cd6/Derby-County-Norwich-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/901c1b82/Blackburn-Rovers-Queens-Park-Rangers-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdad062b/Sheffield-Wednesday-West-Bromwich-Albion-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1592fcfa/Middlesbrough-Stoke-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b6683f4/Watford-Sunderland-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5878c137/Leeds-United-Coventry-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/597b09d3/Millwall-Preston-North-End-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/65f173f3/Hull-City-Cardiff-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75a9500f/Oxford-United-Burnley-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d8d01d42/Portsmouth-Sheffield-United-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6dc67563/Swansea-City-Bristol-City-September-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05de17a9/Coventry-City-Blackburn-Rovers-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15e46af7/Burnley-Plymouth-Argyle-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a71cd8d/Sunderland-Derby-County-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/59700177/Queens-Park-Rangers-Hull-City-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a67955c6/Norwich-City-Leeds-United-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c0cad892/Cardiff-City-Millwall-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee04264d/Luton-Town-Oxford-United-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9afc6e0a/West-Bromwich-Albion-Middlesbrough-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/389c3828/Stoke-City-Portsmouth-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4f8b9672/Preston-North-End-Watford-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84ae4d2d/Sheffield-United-Swansea-City-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/81814d03/Bristol-City-Sheffield-Wednesday-October-2-2024-Championship</t>
   </si>
 </sst>
 </file>
@@ -508,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -572,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -580,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -596,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -604,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -612,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -628,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -636,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -644,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -652,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -660,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -668,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -676,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -684,7 +828,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -692,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -708,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -716,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -724,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -748,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -756,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -764,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -772,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +924,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38">
@@ -796,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39">
@@ -804,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
@@ -812,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +964,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42">
@@ -828,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43">
@@ -836,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44">
@@ -844,7 +988,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45">
@@ -852,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
@@ -860,7 +1004,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48">
@@ -876,7 +1020,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49">
@@ -884,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
@@ -892,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
@@ -900,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52">
@@ -908,7 +1052,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53">
@@ -916,7 +1060,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -924,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
@@ -932,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56">
@@ -940,7 +1084,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57">
@@ -948,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
@@ -956,7 +1100,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59">
@@ -964,7 +1108,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
@@ -972,7 +1116,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61">
@@ -980,7 +1124,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62">
@@ -988,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63">
@@ -996,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64">
@@ -1004,7 +1148,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65">
@@ -1012,7 +1156,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66">
@@ -1020,7 +1164,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67">
@@ -1028,7 +1172,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1180,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69">
@@ -1044,7 +1188,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
@@ -1052,7 +1196,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71">
@@ -1060,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
@@ -1068,7 +1212,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73">
@@ -1076,7 +1220,199 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/e1_urls.xlsx
+++ b/e1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>x</t>
   </si>
@@ -305,6 +305,114 @@
     <t>96</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -591,6 +699,114 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/81814d03/Bristol-City-Sheffield-Wednesday-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d893be3b/Sunderland-Leeds-United-October-4-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b25d1811/Burnley-Preston-North-End-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3c3fb52/Portsmouth-Oxford-United-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb90822e/Norwich-City-Hull-City-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/097ffcdc/Plymouth-Argyle-Blackburn-Rovers-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2ad57659/Sheffield-United-Luton-Town-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2b1d0c9c/Swansea-City-Stoke-City-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c3ecef59/West-Bromwich-Albion-Millwall-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc42dab5/Coventry-City-Sheffield-Wednesday-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee17be41/Watford-Middlesbrough-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efe76973/Derby-County-Queens-Park-Rangers-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c80518e2/Bristol-City-Cardiff-City-October-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f025982/Leeds-United-Sheffield-United-October-18-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/078a8d15/Preston-North-End-Coventry-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3c430fad/Oxford-United-West-Bromwich-Albion-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdfb6a22/Luton-Town-Watford-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdda86b0/Cardiff-City-Plymouth-Argyle-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c05d9e2/Blackburn-Rovers-Swansea-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63eae343/Millwall-Derby-County-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/66b6fdb2/Stoke-City-Norwich-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/71349150/Sheffield-Wednesday-Burnley-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3a93f3c/Queens-Park-Rangers-Portsmouth-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e0813f05/Middlesbrough-Bristol-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1663864f/Hull-City-Sunderland-October-20-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2125576d/Leeds-United-Watford-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4ffe09d7/Preston-North-End-Norwich-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3c253b7/Sheffield-Wednesday-Swansea-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b54f51be/Cardiff-City-Portsmouth-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4b76915/Oxford-United-Derby-County-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdd55c49/Stoke-City-Bristol-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7a4d13fc/Queens-Park-Rangers-Coventry-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36fd56f6/Millwall-Plymouth-Argyle-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f6e9889/Hull-City-Burnley-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2475a0d/Luton-Town-Sunderland-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec61f7ad/Blackburn-Rovers-West-Bromwich-Albion-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8cef1a6f/Middlesbrough-Sheffield-United-October-23-2024-Championship</t>
   </si>
 </sst>
 </file>
@@ -652,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -660,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -708,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -716,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -724,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -756,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
@@ -764,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +1004,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -796,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -804,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
@@ -812,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -820,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24">
@@ -828,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +1052,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -844,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
@@ -852,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
@@ -860,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -868,7 +1084,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -876,7 +1092,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
@@ -884,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -892,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -908,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
@@ -916,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36">
@@ -924,7 +1140,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -932,7 +1148,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39">
@@ -948,7 +1164,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +1172,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
@@ -964,7 +1180,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42">
@@ -972,7 +1188,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43">
@@ -980,7 +1196,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44">
@@ -988,7 +1204,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
@@ -996,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46">
@@ -1004,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47">
@@ -1012,7 +1228,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48">
@@ -1020,7 +1236,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49">
@@ -1028,7 +1244,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
@@ -1036,7 +1252,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51">
@@ -1044,7 +1260,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52">
@@ -1052,7 +1268,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
@@ -1060,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54">
@@ -1068,7 +1284,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55">
@@ -1076,7 +1292,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56">
@@ -1084,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57">
@@ -1092,7 +1308,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58">
@@ -1100,7 +1316,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
@@ -1108,7 +1324,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60">
@@ -1116,7 +1332,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61">
@@ -1124,7 +1340,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62">
@@ -1132,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63">
@@ -1140,7 +1356,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64">
@@ -1148,7 +1364,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65">
@@ -1156,7 +1372,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66">
@@ -1164,7 +1380,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67">
@@ -1172,7 +1388,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -1180,7 +1396,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -1188,7 +1404,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -1196,7 +1412,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71">
@@ -1204,7 +1420,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72">
@@ -1212,7 +1428,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73">
@@ -1220,7 +1436,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74">
@@ -1228,7 +1444,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
@@ -1236,7 +1452,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76">
@@ -1244,7 +1460,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77">
@@ -1252,7 +1468,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
@@ -1260,7 +1476,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
@@ -1268,7 +1484,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80">
@@ -1276,7 +1492,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81">
@@ -1284,7 +1500,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82">
@@ -1292,7 +1508,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83">
@@ -1300,7 +1516,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84">
@@ -1308,7 +1524,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85">
@@ -1316,7 +1532,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -1324,7 +1540,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87">
@@ -1332,7 +1548,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88">
@@ -1340,7 +1556,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1564,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90">
@@ -1356,7 +1572,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91">
@@ -1364,7 +1580,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92">
@@ -1372,7 +1588,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93">
@@ -1380,7 +1596,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
@@ -1388,7 +1604,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95">
@@ -1396,7 +1612,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96">
@@ -1404,7 +1620,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97">
@@ -1412,7 +1628,295 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/e1_urls.xlsx
+++ b/e1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>x</t>
   </si>
@@ -413,6 +413,117 @@
     <t>132</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -807,6 +918,117 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/8cef1a6f/Middlesbrough-Sheffield-United-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec79c9ed/Portsmouth-Sheffield-Wednesday-October-25-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/29734951/Bristol-City-Leeds-United-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d3fb4b3/Coventry-City-Luton-Town-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc9c1708/Watford-Blackburn-Rovers-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ca6685d/West-Bromwich-Albion-Cardiff-City-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2383efd/Swansea-City-Millwall-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b521d7f8/Sheffield-United-Stoke-City-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c59beda8/Burnley-Queens-Park-Rangers-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce15e1fd/Plymouth-Argyle-Preston-North-End-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da73045d/Sunderland-Oxford-United-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdf11982/Derby-County-Hull-City-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b8078d8b/Norwich-City-Middlesbrough-October-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d6f7615c/Luton-Town-West-Bromwich-Albion-November-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15e1a067/Oxford-United-Swansea-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6512ad6f/Stoke-City-Derby-County-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9ae712b2/Blackburn-Rovers-Sheffield-United-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/331e188b/Cardiff-City-Norwich-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5724c63e/Sheffield-Wednesday-Watford-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a50bc6db/Hull-City-Portsmouth-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a92a4e36/Preston-North-End-Bristol-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c46862e8/Leeds-United-Plymouth-Argyle-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d65f705a/Middlesbrough-Coventry-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed5ce326/Queens-Park-Rangers-Sunderland-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3ddeada/Millwall-Burnley-November-3-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/29df15a5/Sheffield-Wednesday-Norwich-City-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a07d7a8e/Bristol-City-Sheffield-United-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eaf5cd97/Oxford-United-Hull-City-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fe832864/Queens-Park-Rangers-Middlesbrough-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22eb30ed/Swansea-City-Watford-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/953c4971/Plymouth-Argyle-Portsmouth-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7d54dd3e/Coventry-City-Derby-County-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8b9a8fba/Millwall-Leeds-United-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/df8b3ccd/Blackburn-Rovers-Stoke-City-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49939421/Luton-Town-Cardiff-City-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d71db0bd/Preston-North-End-Sunderland-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ad67dd64/West-Bromwich-Albion-Burnley-November-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92f63f8c/Watford-Oxford-United-November-8-2024-Championship</t>
   </si>
 </sst>
 </file>
@@ -868,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -876,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -884,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -892,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -908,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
@@ -916,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -924,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
@@ -948,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -956,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
@@ -964,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -972,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -980,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -988,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -996,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -1012,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -1020,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -1028,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -1036,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
@@ -1044,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
@@ -1052,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -1060,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
@@ -1068,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -1076,7 +1298,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
@@ -1084,7 +1306,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
@@ -1092,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31">
@@ -1100,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
@@ -1116,7 +1338,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
@@ -1124,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
@@ -1140,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
@@ -1156,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -1164,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
@@ -1172,7 +1394,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
@@ -1180,7 +1402,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42">
@@ -1188,7 +1410,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43">
@@ -1196,7 +1418,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44">
@@ -1204,7 +1426,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45">
@@ -1212,7 +1434,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46">
@@ -1220,7 +1442,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -1228,7 +1450,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48">
@@ -1236,7 +1458,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49">
@@ -1244,7 +1466,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
@@ -1252,7 +1474,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
@@ -1260,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52">
@@ -1268,7 +1490,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53">
@@ -1276,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54">
@@ -1284,7 +1506,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55">
@@ -1292,7 +1514,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56">
@@ -1300,7 +1522,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57">
@@ -1308,7 +1530,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58">
@@ -1316,7 +1538,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59">
@@ -1324,7 +1546,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1554,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61">
@@ -1340,7 +1562,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62">
@@ -1348,7 +1570,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
@@ -1356,7 +1578,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
@@ -1364,7 +1586,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65">
@@ -1372,7 +1594,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
@@ -1380,7 +1602,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67">
@@ -1388,7 +1610,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68">
@@ -1396,7 +1618,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1626,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70">
@@ -1412,7 +1634,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71">
@@ -1420,7 +1642,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72">
@@ -1428,7 +1650,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
@@ -1436,7 +1658,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74">
@@ -1444,7 +1666,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75">
@@ -1452,7 +1674,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76">
@@ -1460,7 +1682,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77">
@@ -1468,7 +1690,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78">
@@ -1476,7 +1698,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79">
@@ -1484,7 +1706,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80">
@@ -1492,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81">
@@ -1500,7 +1722,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82">
@@ -1508,7 +1730,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83">
@@ -1516,7 +1738,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84">
@@ -1524,7 +1746,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85">
@@ -1532,7 +1754,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86">
@@ -1540,7 +1762,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87">
@@ -1548,7 +1770,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88">
@@ -1556,7 +1778,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89">
@@ -1564,7 +1786,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90">
@@ -1572,7 +1794,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91">
@@ -1580,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92">
@@ -1588,7 +1810,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93">
@@ -1596,7 +1818,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94">
@@ -1604,7 +1826,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95">
@@ -1612,7 +1834,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96">
@@ -1620,7 +1842,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97">
@@ -1628,7 +1850,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98">
@@ -1636,7 +1858,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99">
@@ -1644,7 +1866,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100">
@@ -1652,7 +1874,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101">
@@ -1660,7 +1882,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102">
@@ -1668,7 +1890,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103">
@@ -1676,7 +1898,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104">
@@ -1684,7 +1906,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
@@ -1692,7 +1914,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
@@ -1700,7 +1922,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107">
@@ -1708,7 +1930,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108">
@@ -1716,7 +1938,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109">
@@ -1724,7 +1946,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110">
@@ -1732,7 +1954,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111">
@@ -1740,7 +1962,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112">
@@ -1748,7 +1970,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113">
@@ -1756,7 +1978,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114">
@@ -1764,7 +1986,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115">
@@ -1772,7 +1994,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116">
@@ -1780,7 +2002,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117">
@@ -1788,7 +2010,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118">
@@ -1796,7 +2018,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119">
@@ -1804,7 +2026,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120">
@@ -1812,7 +2034,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121">
@@ -1820,7 +2042,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122">
@@ -1828,7 +2050,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123">
@@ -1836,7 +2058,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124">
@@ -1844,7 +2066,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125">
@@ -1852,7 +2074,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126">
@@ -1860,7 +2082,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127">
@@ -1868,7 +2090,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128">
@@ -1876,7 +2098,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129">
@@ -1884,7 +2106,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130">
@@ -1892,7 +2114,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131">
@@ -1900,7 +2122,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132">
@@ -1908,7 +2130,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133">
@@ -1916,7 +2138,303 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/e1_urls.xlsx
+++ b/e1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
   <si>
     <t>x</t>
   </si>
@@ -524,6 +524,243 @@
     <t>169</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -1029,6 +1266,243 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/92f63f8c/Watford-Oxford-United-November-8-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/65d87a4a/Cardiff-City-Blackburn-Rovers-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b5755e7/Stoke-City-Millwall-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb4638bf/Middlesbrough-Luton-Town-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/16ceac84/Portsmouth-Preston-North-End-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/636ca36b/Leeds-United-Queens-Park-Rangers-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/693e7a3b/Derby-County-Plymouth-Argyle-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/738708a0/Norwich-City-Bristol-City-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7eb39ed1/Sunderland-Coventry-City-November-9-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/89aa3552/Sheffield-United-Sheffield-Wednesday-November-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3eb7119d/Hull-City-West-Bromwich-Albion-November-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/edd3c1f8/Burnley-Swansea-City-November-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5b4b14e/Plymouth-Argyle-Watford-November-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5268fe49/Coventry-City-Sheffield-United-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a30accf8/Sheffield-Wednesday-Cardiff-City-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d13c4fcb/Bristol-City-Burnley-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/048593c6/Luton-Town-Hull-City-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/20144329/West-Bromwich-Albion-Norwich-City-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22c4db48/Millwall-Sunderland-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7deb4475/Preston-North-End-Derby-County-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed18cac7/Oxford-United-Middlesbrough-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fcc57ad4/Queens-Park-Rangers-Stoke-City-November-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2de1c7be/Swansea-City-Leeds-United-November-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/258e60bf/Hull-City-Sheffield-Wednesday-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/279aacc3/Norwich-City-Plymouth-Argyle-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d224963/Watford-Bristol-City-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a97d0c2c/Stoke-City-Preston-North-End-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c4d51048/Sheffield-United-Oxford-United-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f79d2555/Burnley-Coventry-City-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bef97610/Sunderland-West-Bromwich-Albion-November-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32d56228/Cardiff-City-Queens-Park-Rangers-November-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/64c1c03d/Leeds-United-Luton-Town-November-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cd0b5197/Middlesbrough-Blackburn-Rovers-November-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2c44769b/Derby-County-Swansea-City-November-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9b5f9a05/Sheffield-United-Sunderland-November-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/98a1f8bf/Watford-Queens-Park-Rangers-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dfbf361d/Middlesbrough-Hull-City-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4b2993a/Oxford-United-Millwall-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7639346b/Blackburn-Rovers-Leeds-United-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1072a6ef/Norwich-City-Luton-Town-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/65e74ac5/Stoke-City-Burnley-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/97a98dcb/Coventry-City-Cardiff-City-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/98b613b5/Bristol-City-Plymouth-Argyle-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a514142e/Swansea-City-Portsmouth-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bac18c34/Preston-North-End-West-Bromwich-Albion-November-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab2b1ab2/Derby-County-Sheffield-Wednesday-December-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4b73ea3/Burnley-Middlesbrough-December-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/65930788/Sheffield-Wednesday-Preston-North-End-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a7315485/Sunderland-Stoke-City-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee5e4901/Leeds-United-Derby-County-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06f1af0e/Portsmouth-Bristol-City-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/65e73e28/Millwall-Coventry-City-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7632b821/Hull-City-Blackburn-Rovers-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a463bdbd/Queens-Park-Rangers-Norwich-City-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00bde56f/Luton-Town-Swansea-City-December-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/117145e9/West-Bromwich-Albion-Sheffield-United-December-8-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/030787a7/Sheffield-Wednesday-Blackburn-Rovers-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10b201b3/Sunderland-Bristol-City-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6919f41c/Burnley-Derby-County-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/72be2692/Luton-Town-Stoke-City-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e079dab/Portsmouth-Norwich-City-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c19ee21e/Plymouth-Argyle-Swansea-City-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/89ae2ea9/Leeds-United-Middlesbrough-December-10-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c9be401/Cardiff-City-Preston-North-End-December-11-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/69351d47/Millwall-Sheffield-United-December-11-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c973404/Queens-Park-Rangers-Oxford-United-December-11-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94dd608d/Hull-City-Watford-December-11-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36d6c4fb/West-Bromwich-Albion-Coventry-City-December-11-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/689caba4/Derby-County-Portsmouth-December-13-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d86037b/Coventry-City-Hull-City-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/82347777/Preston-North-End-Leeds-United-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9d409aa7/Bristol-City-Queens-Park-Rangers-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5bbcc700/Sheffield-United-Plymouth-Argyle-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ecd1cd0/Blackburn-Rovers-Luton-Town-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6dfcd542/Swansea-City-Sunderland-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d54bd769/Stoke-City-Cardiff-City-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/de7471e1/Middlesbrough-Millwall-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f252becc/Oxford-United-Sheffield-Wednesday-December-14-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d578780b/Watford-West-Bromwich-Albion-December-15-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/43bcd9a8/Norwich-City-Burnley-December-15-2024-Championship</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
@@ -1098,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -1106,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
@@ -1114,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6">
@@ -1122,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
@@ -1154,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12">
@@ -1170,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
@@ -1178,7 +1652,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
@@ -1186,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15">
@@ -1194,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16">
@@ -1202,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17">
@@ -1210,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1218,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19">
@@ -1226,7 +1700,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20">
@@ -1234,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21">
@@ -1242,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22">
@@ -1250,7 +1724,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -1266,7 +1740,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
@@ -1290,7 +1764,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
@@ -1298,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
@@ -1306,7 +1780,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -1314,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1804,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
@@ -1338,7 +1812,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -1346,7 +1820,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
@@ -1354,7 +1828,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1836,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
@@ -1370,7 +1844,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1378,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
@@ -1386,7 +1860,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1394,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
@@ -1402,7 +1876,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42">
@@ -1410,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44">
@@ -1426,7 +1900,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
@@ -1434,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46">
@@ -1442,7 +1916,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
@@ -1450,7 +1924,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48">
@@ -1458,7 +1932,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
@@ -1466,7 +1940,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50">
@@ -1474,7 +1948,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51">
@@ -1482,7 +1956,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52">
@@ -1490,7 +1964,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53">
@@ -1498,7 +1972,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54">
@@ -1506,7 +1980,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55">
@@ -1514,7 +1988,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56">
@@ -1522,7 +1996,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57">
@@ -1530,7 +2004,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58">
@@ -1538,7 +2012,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59">
@@ -1546,7 +2020,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60">
@@ -1554,7 +2028,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61">
@@ -1562,7 +2036,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62">
@@ -1570,7 +2044,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63">
@@ -1578,7 +2052,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +2060,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65">
@@ -1594,7 +2068,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66">
@@ -1602,7 +2076,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67">
@@ -1610,7 +2084,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68">
@@ -1618,7 +2092,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69">
@@ -1626,7 +2100,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70">
@@ -1634,7 +2108,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +2116,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72">
@@ -1650,7 +2124,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73">
@@ -1658,7 +2132,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74">
@@ -1666,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75">
@@ -1674,7 +2148,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76">
@@ -1682,7 +2156,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77">
@@ -1690,7 +2164,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78">
@@ -1698,7 +2172,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79">
@@ -1706,7 +2180,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80">
@@ -1714,7 +2188,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81">
@@ -1722,7 +2196,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82">
@@ -1730,7 +2204,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83">
@@ -1738,7 +2212,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84">
@@ -1746,7 +2220,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85">
@@ -1754,7 +2228,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86">
@@ -1762,7 +2236,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87">
@@ -1770,7 +2244,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88">
@@ -1778,7 +2252,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89">
@@ -1786,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90">
@@ -1794,7 +2268,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91">
@@ -1802,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92">
@@ -1810,7 +2284,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93">
@@ -1818,7 +2292,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94">
@@ -1826,7 +2300,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95">
@@ -1834,7 +2308,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96">
@@ -1842,7 +2316,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97">
@@ -1850,7 +2324,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98">
@@ -1858,7 +2332,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99">
@@ -1866,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100">
@@ -1874,7 +2348,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101">
@@ -1882,7 +2356,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102">
@@ -1890,7 +2364,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103">
@@ -1898,7 +2372,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104">
@@ -1906,7 +2380,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105">
@@ -1914,7 +2388,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +2396,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107">
@@ -1930,7 +2404,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108">
@@ -1938,7 +2412,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109">
@@ -1946,7 +2420,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110">
@@ -1954,7 +2428,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111">
@@ -1962,7 +2436,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112">
@@ -1970,7 +2444,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113">
@@ -1978,7 +2452,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114">
@@ -1986,7 +2460,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115">
@@ -1994,7 +2468,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116">
@@ -2002,7 +2476,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117">
@@ -2010,7 +2484,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118">
@@ -2018,7 +2492,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119">
@@ -2026,7 +2500,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120">
@@ -2034,7 +2508,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121">
@@ -2042,7 +2516,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122">
@@ -2050,7 +2524,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123">
@@ -2058,7 +2532,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124">
@@ -2066,7 +2540,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125">
@@ -2074,7 +2548,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126">
@@ -2082,7 +2556,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127">
@@ -2090,7 +2564,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2572,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129">
@@ -2106,7 +2580,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130">
@@ -2114,7 +2588,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131">
@@ -2122,7 +2596,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132">
@@ -2130,7 +2604,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133">
@@ -2138,7 +2612,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134">
@@ -2146,7 +2620,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135">
@@ -2154,7 +2628,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136">
@@ -2162,7 +2636,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137">
@@ -2170,7 +2644,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138">
@@ -2178,7 +2652,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139">
@@ -2186,7 +2660,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140">
@@ -2194,7 +2668,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141">
@@ -2202,7 +2676,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142">
@@ -2210,7 +2684,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143">
@@ -2218,7 +2692,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144">
@@ -2226,7 +2700,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145">
@@ -2234,7 +2708,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146">
@@ -2242,7 +2716,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
     </row>
     <row r="147">
@@ -2250,7 +2724,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148">
@@ -2258,7 +2732,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149">
@@ -2266,7 +2740,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
     </row>
     <row r="150">
@@ -2274,7 +2748,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151">
@@ -2282,7 +2756,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152">
@@ -2290,7 +2764,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -2298,7 +2772,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
     </row>
     <row r="154">
@@ -2306,7 +2780,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155">
@@ -2314,7 +2788,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
     </row>
     <row r="156">
@@ -2322,7 +2796,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157">
@@ -2330,7 +2804,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="158">
@@ -2338,7 +2812,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159">
@@ -2346,7 +2820,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160">
@@ -2354,7 +2828,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161">
@@ -2362,7 +2836,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162">
@@ -2370,7 +2844,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163">
@@ -2378,7 +2852,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164">
@@ -2386,7 +2860,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165">
@@ -2394,7 +2868,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166">
@@ -2402,7 +2876,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167">
@@ -2410,7 +2884,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168">
@@ -2418,7 +2892,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
     </row>
     <row r="169">
@@ -2426,7 +2900,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
     </row>
     <row r="170">
@@ -2434,7 +2908,639 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/e1_urls.xlsx
+++ b/e1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="833">
   <si>
     <t>x</t>
   </si>
@@ -761,6 +761,510 @@
     <t>248</t>
   </si>
   <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -1503,6 +2007,510 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/43bcd9a8/Norwich-City-Burnley-December-15-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03c07a2b/Luton-Town-Derby-County-December-20-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/17d57a50/Sheffield-Wednesday-Stoke-City-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/396226c7/Portsmouth-Coventry-City-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7bc9fcf/Hull-City-Swansea-City-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32d87cee/Leeds-United-Oxford-United-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/409d2266/Cardiff-City-Sheffield-United-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d11bc75/Plymouth-Argyle-Middlesbrough-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5a979a0e/Sunderland-Norwich-City-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/804090af/Burnley-Watford-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cd4a9c20/Millwall-Blackburn-Rovers-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cfe916e0/Queens-Park-Rangers-Preston-North-End-December-21-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03897f64/West-Bromwich-Albion-Bristol-City-December-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b87ae4e/Oxford-United-Cardiff-City-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/27846fc3/Watford-Portsmouth-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d5f934d/Coventry-City-Plymouth-Argyle-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56fd60ab/Bristol-City-Luton-Town-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57658a1b/Sheffield-United-Burnley-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/626ca148/Norwich-City-Millwall-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/817f7602/Middlesbrough-Sheffield-Wednesday-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/830a20f2/Blackburn-Rovers-Sunderland-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/df91770a/Preston-North-End-Hull-City-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa013ad1/Swansea-City-Queens-Park-Rangers-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/60b326e7/Derby-County-West-Bromwich-Albion-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6ec6c22/Stoke-City-Leeds-United-December-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/298cad22/Preston-North-End-Sheffield-Wednesday-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abfd255f/Sheffield-United-West-Bromwich-Albion-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc77e84c/Norwich-City-Queens-Park-Rangers-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06d8e201/Coventry-City-Millwall-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0abefaf7/Swansea-City-Luton-Town-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ee726ec/Watford-Cardiff-City-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7432f1aa/Oxford-United-Plymouth-Argyle-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/891c9c61/Blackburn-Rovers-Hull-City-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e3b28954/Stoke-City-Sunderland-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f82e3425/Bristol-City-Portsmouth-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c61d7906/Derby-County-Leeds-United-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8212113a/Middlesbrough-Burnley-December-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3dfdab7f/Queens-Park-Rangers-Watford-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7209634/Plymouth-Argyle-Bristol-City-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f289f6f/Millwall-Oxford-United-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06dc7273/West-Bromwich-Albion-Preston-North-End-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/28b05ab1/Portsmouth-Swansea-City-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/771f767e/Leeds-United-Blackburn-Rovers-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92814fd1/Cardiff-City-Coventry-City-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a00ee65e/Luton-Town-Norwich-City-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b77d677f/Burnley-Stoke-City-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed9fc8df/Sheffield-Wednesday-Derby-County-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/362f9403/Hull-City-Middlesbrough-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/96c203d4/Sunderland-Sheffield-United-January-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0eca2d6d/Blackburn-Rovers-Burnley-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/95fdeff3/Stoke-City-Plymouth-Argyle-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c443693e/Swansea-City-West-Bromwich-Albion-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0866f0e8/Hull-City-Leeds-United-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2fba75cc/Watford-Sheffield-United-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4dbd6c1c/Sheffield-Wednesday-Millwall-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b5dc90a/Norwich-City-Coventry-City-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cab9f51c/Middlesbrough-Cardiff-City-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d4043d35/Bristol-City-Derby-County-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f99a5810/Preston-North-End-Oxford-United-January-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1081e8eb/Sunderland-Portsmouth-January-5-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6d49b49/Queens-Park-Rangers-Luton-Town-January-6-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/28a61bce/Plymouth-Argyle-Oxford-United-January-14-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3b814624/Cardiff-City-Watford-January-14-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0523a3cf/Blackburn-Rovers-Portsmouth-January-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/216c55e4/Burnley-Sunderland-January-17-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22b86724/Millwall-Hull-City-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36d7a096/Plymouth-Argyle-Queens-Park-Rangers-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92864cd0/Cardiff-City-Swansea-City-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0d7c9805/Luton-Town-Preston-North-End-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2b09b517/Portsmouth-Middlesbrough-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2f1090ee/Sheffield-United-Norwich-City-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87090dd7/Coventry-City-Bristol-City-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3ff1571/Derby-County-Watford-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dbf14941/Oxford-United-Blackburn-Rovers-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dda05a01/West-Bromwich-Albion-Stoke-City-January-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3c61f15/Leeds-United-Sheffield-Wednesday-January-19-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1089831e/Swansea-City-Sheffield-United-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2010d495/Blackburn-Rovers-Coventry-City-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2f7e3fdf/Oxford-United-Luton-Town-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a00f804/Derby-County-Sunderland-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/86962acd/Watford-Preston-North-End-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d165ded3/Hull-City-Queens-Park-Rangers-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec925e82/Middlesbrough-West-Bromwich-Albion-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03875940/Millwall-Cardiff-City-January-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/015123b5/Sheffield-Wednesday-Bristol-City-January-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b3282ad/Portsmouth-Stoke-City-January-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c2ed22e/Leeds-United-Norwich-City-January-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e073d138/Plymouth-Argyle-Burnley-January-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/676625b2/Sheffield-United-Hull-City-January-24-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d148bd0/Stoke-City-Oxford-United-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9750780a/Luton-Town-Millwall-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee7cee1a/Norwich-City-Swansea-City-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/081a93be/Coventry-City-Watford-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1320361b/West-Bromwich-Albion-Portsmouth-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/37d0fd0a/Queens-Park-Rangers-Sheffield-Wednesday-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/453d44fb/Cardiff-City-Derby-County-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3e3cff6/Bristol-City-Blackburn-Rovers-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e34baed6/Preston-North-End-Middlesbrough-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f29ae45c/Sunderland-Plymouth-Argyle-January-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/379dd246/Burnley-Leeds-United-January-27-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7f3581f/Portsmouth-Millwall-January-28-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4e774b6a/Blackburn-Rovers-Preston-North-End-January-31-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2a8e8207/Plymouth-Argyle-West-Bromwich-Albion-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/693c4650/Oxford-United-Bristol-City-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6bc68a0/Watford-Norwich-City-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/01cb8524/Leeds-United-Cardiff-City-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e641a82/Portsmouth-Burnley-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/46eb866c/Sheffield-Wednesday-Luton-Town-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4af3b214/Derby-County-Sheffield-United-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c204e63/Swansea-City-Coventry-City-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b6544fd3/Hull-City-Stoke-City-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cdbcdf2d/Millwall-Queens-Park-Rangers-February-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/44a22bbe/Middlesbrough-Sunderland-February-3-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb595c0c/Queens-Park-Rangers-Blackburn-Rovers-February-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d199c9ed/Burnley-Oxford-United-February-4-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/52113d47/Coventry-City-Leeds-United-February-5-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6415ea58/West-Bromwich-Albion-Sheffield-Wednesday-February-8-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/754becae/Sunderland-Watford-February-8-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/30d7eb6e/Norwich-City-Derby-County-February-8-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd5d22fc/Sheffield-United-Portsmouth-February-8-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90efef14/Bristol-City-Swansea-City-February-9-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22056835/Portsmouth-Cardiff-City-February-11-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/40f0de2e/Watford-Leeds-United-February-11-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a8d666ff/Coventry-City-Queens-Park-Rangers-February-11-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dcf356c3/Derby-County-Oxford-United-February-11-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/665065cf/Norwich-City-Preston-North-End-February-11-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2c690538/Plymouth-Argyle-Millwall-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5abfcdd3/Sunderland-Luton-Town-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5fde3b3c/Burnley-Hull-City-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/646bd382/Bristol-City-Stoke-City-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/940f7015/Swansea-City-Sheffield-Wednesday-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3971d9e9/Sheffield-United-Middlesbrough-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/53f9e4e0/West-Bromwich-Albion-Blackburn-Rovers-February-12-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c4d1e26/Queens-Park-Rangers-Derby-County-February-14-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c8b7c80/Preston-North-End-Burnley-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dde41712/Cardiff-City-Bristol-City-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb8a94c9/Oxford-United-Portsmouth-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1482fce5/Hull-City-Norwich-City-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d8eee10/Millwall-West-Bromwich-Albion-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5fcc05ba/Sheffield-Wednesday-Coventry-City-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/83e4ecc0/Blackburn-Rovers-Plymouth-Argyle-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9e120549/Middlesbrough-Watford-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac64abef/Luton-Town-Sheffield-United-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c15e28f0/Stoke-City-Swansea-City-February-15-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c52d12d/Leeds-United-Sunderland-February-17-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/586785eb/Preston-North-End-Millwall-February-18-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6f65986d/Luton-Town-Plymouth-Argyle-February-19-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79a43370/Bristol-City-Middlesbrough-February-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d26a076b/Burnley-Sheffield-Wednesday-February-21-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd090a23/Sunderland-Hull-City-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bef12b49/Derby-County-Millwall-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca35285b/Plymouth-Argyle-Cardiff-City-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18c86aa7/Portsmouth-Queens-Park-Rangers-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9ba1a257/Coventry-City-Preston-North-End-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b9838a91/Swansea-City-Blackburn-Rovers-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2ff48d9/West-Bromwich-Albion-Oxford-United-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e94b1f3b/Norwich-City-Stoke-City-February-22-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1957403a/Watford-Luton-Town-February-23-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e31a61c1/Sheffield-United-Leeds-United-February-24-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bfca1fbf/Cardiff-City-Hull-City-February-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1e28b1b/Stoke-City-Middlesbrough-February-25-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/21d09548/Sheffield-Wednesday-Sunderland-February-28-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/58f69ae9/Blackburn-Rovers-Norwich-City-March-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea38fe7d/Leeds-United-West-Bromwich-Albion-March-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec2c8f92/Oxford-United-Coventry-City-March-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/312652e5/Stoke-City-Watford-March-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/456d45f3/Luton-Town-Portsmouth-March-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56fe2e0e/Middlesbrough-Derby-County-March-1-2025-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eda542fe/Queens-Park-Rangers-Sheffield-United-March-1-2025-Championship</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
@@ -1572,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
@@ -1580,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5">
@@ -1588,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
@@ -1596,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8">
@@ -1612,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
@@ -1620,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10">
@@ -1628,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11">
@@ -1636,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12">
@@ -1644,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13">
@@ -1652,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15">
@@ -1668,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16">
@@ -1676,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17">
@@ -1684,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18">
@@ -1692,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +2708,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20">
@@ -1708,7 +2716,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21">
@@ -1716,7 +2724,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22">
@@ -1724,7 +2732,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23">
@@ -1732,7 +2740,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24">
@@ -1740,7 +2748,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25">
@@ -1748,7 +2756,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26">
@@ -1756,7 +2764,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27">
@@ -1764,7 +2772,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28">
@@ -1772,7 +2780,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29">
@@ -1780,7 +2788,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30">
@@ -1788,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31">
@@ -1796,7 +2804,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32">
@@ -1804,7 +2812,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33">
@@ -1812,7 +2820,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34">
@@ -1820,7 +2828,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35">
@@ -1828,7 +2836,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36">
@@ -1836,7 +2844,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37">
@@ -1844,7 +2852,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38">
@@ -1852,7 +2860,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39">
@@ -1860,7 +2868,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40">
@@ -1868,7 +2876,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +2884,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42">
@@ -1884,7 +2892,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43">
@@ -1892,7 +2900,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>290</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44">
@@ -1900,7 +2908,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45">
@@ -1908,7 +2916,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46">
@@ -1916,7 +2924,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
@@ -1924,7 +2932,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48">
@@ -1932,7 +2940,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49">
@@ -1940,7 +2948,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>296</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50">
@@ -1948,7 +2956,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51">
@@ -1956,7 +2964,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52">
@@ -1964,7 +2972,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53">
@@ -1972,7 +2980,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54">
@@ -1980,7 +2988,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55">
@@ -1988,7 +2996,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
@@ -1996,7 +3004,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57">
@@ -2004,7 +3012,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>304</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58">
@@ -2012,7 +3020,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59">
@@ -2020,7 +3028,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
@@ -2028,7 +3036,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61">
@@ -2036,7 +3044,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62">
@@ -2044,7 +3052,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63">
@@ -2052,7 +3060,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>310</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64">
@@ -2060,7 +3068,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65">
@@ -2068,7 +3076,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66">
@@ -2076,7 +3084,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67">
@@ -2084,7 +3092,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68">
@@ -2092,7 +3100,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>315</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69">
@@ -2100,7 +3108,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70">
@@ -2108,7 +3116,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71">
@@ -2116,7 +3124,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72">
@@ -2124,7 +3132,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73">
@@ -2132,7 +3140,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74">
@@ -2140,7 +3148,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>321</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75">
@@ -2148,7 +3156,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76">
@@ -2156,7 +3164,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>323</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77">
@@ -2164,7 +3172,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>324</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78">
@@ -2172,7 +3180,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>325</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79">
@@ -2180,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>326</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80">
@@ -2188,7 +3196,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>327</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81">
@@ -2196,7 +3204,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82">
@@ -2204,7 +3212,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83">
@@ -2212,7 +3220,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84">
@@ -2220,7 +3228,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85">
@@ -2228,7 +3236,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86">
@@ -2236,7 +3244,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87">
@@ -2244,7 +3252,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88">
@@ -2252,7 +3260,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>335</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89">
@@ -2260,7 +3268,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>336</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90">
@@ -2268,7 +3276,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91">
@@ -2276,7 +3284,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92">
@@ -2284,7 +3292,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +3300,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>340</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94">
@@ -2300,7 +3308,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>341</v>
+        <v>509</v>
       </c>
     </row>
     <row r="95">
@@ -2308,7 +3316,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
+        <v>510</v>
       </c>
     </row>
     <row r="96">
@@ -2316,7 +3324,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>343</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97">
@@ -2324,7 +3332,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>344</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98">
@@ -2332,7 +3340,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99">
@@ -2340,7 +3348,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100">
@@ -2348,7 +3356,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101">
@@ -2356,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102">
@@ -2364,7 +3372,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>349</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103">
@@ -2372,7 +3380,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104">
@@ -2380,7 +3388,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>351</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105">
@@ -2388,7 +3396,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106">
@@ -2396,7 +3404,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>353</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107">
@@ -2404,7 +3412,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108">
@@ -2412,7 +3420,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>355</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109">
@@ -2420,7 +3428,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110">
@@ -2428,7 +3436,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111">
@@ -2436,7 +3444,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112">
@@ -2444,7 +3452,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>359</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113">
@@ -2452,7 +3460,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114">
@@ -2460,7 +3468,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>361</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115">
@@ -2468,7 +3476,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116">
@@ -2476,7 +3484,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117">
@@ -2484,7 +3492,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>364</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118">
@@ -2492,7 +3500,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>365</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119">
@@ -2500,7 +3508,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120">
@@ -2508,7 +3516,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121">
@@ -2516,7 +3524,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>368</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122">
@@ -2524,7 +3532,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123">
@@ -2532,7 +3540,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124">
@@ -2540,7 +3548,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125">
@@ -2548,7 +3556,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>372</v>
+        <v>540</v>
       </c>
     </row>
     <row r="126">
@@ -2556,7 +3564,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>541</v>
       </c>
     </row>
     <row r="127">
@@ -2564,7 +3572,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128">
@@ -2572,7 +3580,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129">
@@ -2580,7 +3588,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130">
@@ -2588,7 +3596,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131">
@@ -2596,7 +3604,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132">
@@ -2604,7 +3612,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>379</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133">
@@ -2612,7 +3620,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134">
@@ -2620,7 +3628,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>381</v>
+        <v>549</v>
       </c>
     </row>
     <row r="135">
@@ -2628,7 +3636,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>382</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136">
@@ -2636,7 +3644,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>383</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137">
@@ -2644,7 +3652,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138">
@@ -2652,7 +3660,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139">
@@ -2660,7 +3668,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140">
@@ -2668,7 +3676,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>387</v>
+        <v>555</v>
       </c>
     </row>
     <row r="141">
@@ -2676,7 +3684,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>388</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142">
@@ -2684,7 +3692,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>389</v>
+        <v>557</v>
       </c>
     </row>
     <row r="143">
@@ -2692,7 +3700,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144">
@@ -2700,7 +3708,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>391</v>
+        <v>559</v>
       </c>
     </row>
     <row r="145">
@@ -2708,7 +3716,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>392</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146">
@@ -2716,7 +3724,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>561</v>
       </c>
     </row>
     <row r="147">
@@ -2724,7 +3732,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>394</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148">
@@ -2732,7 +3740,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>395</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149">
@@ -2740,7 +3748,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>396</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150">
@@ -2748,7 +3756,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>397</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151">
@@ -2756,7 +3764,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>398</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152">
@@ -2764,7 +3772,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>399</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153">
@@ -2772,7 +3780,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>400</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154">
@@ -2780,7 +3788,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>401</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155">
@@ -2788,7 +3796,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>402</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156">
@@ -2796,7 +3804,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>403</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157">
@@ -2804,7 +3812,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>404</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158">
@@ -2812,7 +3820,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>405</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159">
@@ -2820,7 +3828,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>406</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160">
@@ -2828,7 +3836,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>407</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161">
@@ -2836,7 +3844,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>408</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162">
@@ -2844,7 +3852,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>409</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163">
@@ -2852,7 +3860,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>410</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164">
@@ -2860,7 +3868,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165">
@@ -2868,7 +3876,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>412</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166">
@@ -2876,7 +3884,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>413</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167">
@@ -2884,7 +3892,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>414</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168">
@@ -2892,7 +3900,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>415</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169">
@@ -2900,7 +3908,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>416</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170">
@@ -2908,7 +3916,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>417</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171">
@@ -2916,7 +3924,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>418</v>
+        <v>586</v>
       </c>
     </row>
     <row r="172">
@@ -2924,7 +3932,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>419</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173">
@@ -2932,7 +3940,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>420</v>
+        <v>588</v>
       </c>
     </row>
     <row r="174">
@@ -2940,7 +3948,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>421</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175">
@@ -2948,7 +3956,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>422</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176">
@@ -2956,7 +3964,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>423</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177">
@@ -2964,7 +3972,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>424</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178">
@@ -2972,7 +3980,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>425</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179">
@@ -2980,7 +3988,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>426</v>
+        <v>594</v>
       </c>
     </row>
     <row r="180">
@@ -2988,7 +3996,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>427</v>
+        <v>595</v>
       </c>
     </row>
     <row r="181">
@@ -2996,7 +4004,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>428</v>
+        <v>596</v>
       </c>
     </row>
     <row r="182">
@@ -3004,7 +4012,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>429</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183">
@@ -3012,7 +4020,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>430</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184">
@@ -3020,7 +4028,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>431</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185">
@@ -3028,7 +4036,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>432</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186">
@@ -3036,7 +4044,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>433</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187">
@@ -3044,7 +4052,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>434</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188">
@@ -3052,7 +4060,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>435</v>
+        <v>603</v>
       </c>
     </row>
     <row r="189">
@@ -3060,7 +4068,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>436</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190">
@@ -3068,7 +4076,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>437</v>
+        <v>605</v>
       </c>
     </row>
     <row r="191">
@@ -3076,7 +4084,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>438</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192">
@@ -3084,7 +4092,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>439</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193">
@@ -3092,7 +4100,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>440</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194">
@@ -3100,7 +4108,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>441</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195">
@@ -3108,7 +4116,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>442</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196">
@@ -3116,7 +4124,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>443</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197">
@@ -3124,7 +4132,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>444</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198">
@@ -3132,7 +4140,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>445</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199">
@@ -3140,7 +4148,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>446</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200">
@@ -3148,7 +4156,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>447</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201">
@@ -3156,7 +4164,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>448</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202">
@@ -3164,7 +4172,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>449</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203">
@@ -3172,7 +4180,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>450</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204">
@@ -3180,7 +4188,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>451</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205">
@@ -3188,7 +4196,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>452</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206">
@@ -3196,7 +4204,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>453</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207">
@@ -3204,7 +4212,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>454</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208">
@@ -3212,7 +4220,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>455</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209">
@@ -3220,7 +4228,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>456</v>
+        <v>624</v>
       </c>
     </row>
     <row r="210">
@@ -3228,7 +4236,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>457</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211">
@@ -3236,7 +4244,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>458</v>
+        <v>626</v>
       </c>
     </row>
     <row r="212">
@@ -3244,7 +4252,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>459</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213">
@@ -3252,7 +4260,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>460</v>
+        <v>628</v>
       </c>
     </row>
     <row r="214">
@@ -3260,7 +4268,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>461</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215">
@@ -3268,7 +4276,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>462</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216">
@@ -3276,7 +4284,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>463</v>
+        <v>631</v>
       </c>
     </row>
     <row r="217">
@@ -3284,7 +4292,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>464</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218">
@@ -3292,7 +4300,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>465</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219">
@@ -3300,7 +4308,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>466</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220">
@@ -3308,7 +4316,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>467</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221">
@@ -3316,7 +4324,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>468</v>
+        <v>636</v>
       </c>
     </row>
     <row r="222">
@@ -3324,7 +4332,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>469</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223">
@@ -3332,7 +4340,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>470</v>
+        <v>638</v>
       </c>
     </row>
     <row r="224">
@@ -3340,7 +4348,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>471</v>
+        <v>639</v>
       </c>
     </row>
     <row r="225">
@@ -3348,7 +4356,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>472</v>
+        <v>640</v>
       </c>
     </row>
     <row r="226">
@@ -3356,7 +4364,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>473</v>
+        <v>641</v>
       </c>
     </row>
     <row r="227">
@@ -3364,7 +4372,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>474</v>
+        <v>642</v>
       </c>
     </row>
     <row r="228">
@@ -3372,7 +4380,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>475</v>
+        <v>643</v>
       </c>
     </row>
     <row r="229">
@@ -3380,7 +4388,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
     </row>
     <row r="230">
@@ -3388,7 +4396,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>477</v>
+        <v>645</v>
       </c>
     </row>
     <row r="231">
@@ -3396,7 +4404,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>478</v>
+        <v>646</v>
       </c>
     </row>
     <row r="232">
@@ -3404,7 +4412,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>479</v>
+        <v>647</v>
       </c>
     </row>
     <row r="233">
@@ -3412,7 +4420,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>480</v>
+        <v>648</v>
       </c>
     </row>
     <row r="234">
@@ -3420,7 +4428,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>481</v>
+        <v>649</v>
       </c>
     </row>
     <row r="235">
@@ -3428,7 +4436,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>482</v>
+        <v>650</v>
       </c>
     </row>
     <row r="236">
@@ -3436,7 +4444,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>483</v>
+        <v>651</v>
       </c>
     </row>
     <row r="237">
@@ -3444,7 +4452,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>484</v>
+        <v>652</v>
       </c>
     </row>
     <row r="238">
@@ -3452,7 +4460,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>485</v>
+        <v>653</v>
       </c>
     </row>
     <row r="239">
@@ -3460,7 +4468,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>486</v>
+        <v>654</v>
       </c>
     </row>
     <row r="240">
@@ -3468,7 +4476,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>487</v>
+        <v>655</v>
       </c>
     </row>
     <row r="241">
@@ -3476,7 +4484,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>488</v>
+        <v>656</v>
       </c>
     </row>
     <row r="242">
@@ -3484,7 +4492,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>489</v>
+        <v>657</v>
       </c>
     </row>
     <row r="243">
@@ -3492,7 +4500,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>490</v>
+        <v>658</v>
       </c>
     </row>
     <row r="244">
@@ -3500,7 +4508,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>491</v>
+        <v>659</v>
       </c>
     </row>
     <row r="245">
@@ -3508,7 +4516,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>492</v>
+        <v>660</v>
       </c>
     </row>
     <row r="246">
@@ -3516,7 +4524,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>493</v>
+        <v>661</v>
       </c>
     </row>
     <row r="247">
@@ -3524,7 +4532,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>494</v>
+        <v>662</v>
       </c>
     </row>
     <row r="248">
@@ -3532,7 +4540,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>495</v>
+        <v>663</v>
       </c>
     </row>
     <row r="249">
@@ -3540,7 +4548,1351 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>496</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
